--- a/Design/Level Design/FlowchartExcel.xlsx
+++ b/Design/Level Design/FlowchartExcel.xlsx
@@ -4,15 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="14250"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
     <sheet name="MENU FLOW" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="MISSION LOG" sheetId="9" r:id="rId3"/>
+    <sheet name="GUI screen layout" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>NICE TO HAVE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2479,13 +2489,15 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2499,7 +2511,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Upgrade</a:t>
+            <a:t>Replace  Item</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6607,6 +6619,759 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="381000"/>
+          <a:ext cx="11315700" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="571500"/>
+          <a:ext cx="10801350" cy="7239000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="952500"/>
+          <a:ext cx="4114800" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="1143000"/>
+          <a:ext cx="3600450" cy="6096000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>MISSION OBJECTIVES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* herp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* derp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* rofl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* copter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* bah</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* humbug</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>* shalom</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="952500"/>
+          <a:ext cx="5915025" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="1143000"/>
+          <a:ext cx="5400675" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>MISSION DESCRIPTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>Lorem</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800" baseline="0"/>
+            <a:t> ipsum dolor fakin' herp derp</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="3619500"/>
+          <a:ext cx="5915025" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3810000"/>
+          <a:ext cx="5400675" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>&lt;insert</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800" baseline="0"/>
+            <a:t> hassu kuva missionista&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830050" y="7048500"/>
+          <a:ext cx="1543050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>CLOSE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="381000"/>
+          <a:ext cx="11315700" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="571500"/>
+          <a:ext cx="10801350" cy="7239000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830050" y="7048500"/>
+          <a:ext cx="1543050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1800"/>
+            <a:t>CLOSE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7411,12 +8176,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F19:BG62"/>
+  <dimension ref="F15:BG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="15" spans="55:55" x14ac:dyDescent="0.25">
+      <c r="BC15" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="7:59" x14ac:dyDescent="0.25">
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
@@ -7545,12 +8315,12 @@
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6"/>
-      <c r="AU24" s="6"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="6"/>
-      <c r="AX24" s="6"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="6"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
@@ -7576,12 +8346,12 @@
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
@@ -7607,12 +8377,12 @@
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
-      <c r="AU26" s="6"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="6"/>
-      <c r="AX26" s="6"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="6"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
       <c r="BE26" s="7"/>
@@ -7638,12 +8408,12 @@
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
-      <c r="AU27" s="6"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="6"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="6"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
       <c r="BE27" s="7"/>
@@ -8217,7 +8987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U18:AJ50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
@@ -8483,6 +9253,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BL32" sqref="BL32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>

--- a/Design/Level Design/FlowchartExcel.xlsx
+++ b/Design/Level Design/FlowchartExcel.xlsx
@@ -4,25 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
     <sheet name="MENU FLOW" sheetId="8" r:id="rId2"/>
-    <sheet name="MISSION LOG" sheetId="9" r:id="rId3"/>
-    <sheet name="GUI screen layout" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>NICE TO HAVE</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1605,7 +1595,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Select Target(s)</a:t>
+            <a:t>Select Target</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1627,13 +1617,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="5524500"/>
-          <a:ext cx="1285875" cy="571500"/>
+        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3866029" y="5524500"/>
+          <a:ext cx="1288677" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1662,16 +1652,16 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Confirm (if targets selected &gt; 0)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1684,13 +1674,68 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rounded Rectangle 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="6286500"/>
-          <a:ext cx="1285875" cy="571500"/>
+        <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608294" y="6286500"/>
+          <a:ext cx="1546412" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Engage (only if targets selected &gt; 0)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="3810000"/>
+          <a:ext cx="1543050" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1719,62 +1764,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rounded Rectangle 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="7048500"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Engage (only if targets selected &gt; 0)</a:t>
+            <a:t>Weapon Slots 1-4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1785,24 +1775,24 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8743950" y="3810000"/>
-          <a:ext cx="1543050" cy="571500"/>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793941" y="4572000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1831,7 +1821,178 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Weapon Slots 1-4</a:t>
+            <a:t>Upgrade Slots 1-4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="3619500"/>
+          <a:ext cx="1543050" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Movement Screen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="3619500"/>
+          <a:ext cx="1543050" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Weapon Screen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600449" y="4572000"/>
+          <a:ext cx="1285875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Target Screen</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1842,24 +2003,24 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9772650" y="6286500"/>
-          <a:ext cx="1543050" cy="571500"/>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793941" y="5334000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1888,34 +2049,34 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Upgrade Slots 1-4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+            <a:t>Cargo Slots 1-8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="3619500"/>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="3619500"/>
           <a:ext cx="1543050" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1924,15 +2085,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
+          <a:schemeClr val="accent4">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1945,148 +2106,34 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Movement Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rounded Rectangle 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="3619500"/>
-          <a:ext cx="1543050" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Weapon Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600449" y="4572000"/>
-          <a:ext cx="1285875" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Target Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9772650" y="8763000"/>
+            <a:t>Inventory Screen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rounded Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="9906000"/>
           <a:ext cx="1543050" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2116,373 +2163,35 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cargo Slots 1-8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8743950" y="3619500"/>
-          <a:ext cx="1543050" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Inventory Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rounded Rectangle 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9001125" y="4572000"/>
-          <a:ext cx="1285875" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rounded Rectangle 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="4762500"/>
-          <a:ext cx="1285875" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Weapon</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="7048500"/>
-          <a:ext cx="1285875" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rounded Rectangle 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="7239000"/>
-          <a:ext cx="1285875" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Upgrade</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rounded Rectangle 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="9525000"/>
-          <a:ext cx="1285875" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace Screen</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rounded Rectangle 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="9715500"/>
-          <a:ext cx="1285875" cy="571500"/>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608294" y="7048500"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2511,63 +2220,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Replace  Item</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Rounded Rectangle 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="9906000"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
             <a:t>Cancel</a:t>
           </a:r>
         </a:p>
@@ -2577,72 +2229,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="7810500"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2652,8 +2247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9772650" y="11239500"/>
-          <a:ext cx="1543050" cy="571500"/>
+          <a:off x="9793941" y="6858000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3250,7 +2845,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3263,8 +2858,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4886325" y="3714750"/>
-          <a:ext cx="12700" cy="2857500"/>
+          <a:off x="5154706" y="3714750"/>
+          <a:ext cx="12700" cy="2095500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3302,7 +2897,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3315,8 +2910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3343275" y="3143250"/>
-          <a:ext cx="12700" cy="4953000"/>
+          <a:off x="3608294" y="3143250"/>
+          <a:ext cx="12700" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3354,7 +2949,7 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3367,8 +2962,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="9772650" y="3143250"/>
-          <a:ext cx="12700" cy="8382000"/>
+          <a:off x="9793941" y="3143250"/>
+          <a:ext cx="12700" cy="4000500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3517,7 +3112,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="89" name="Elbow Connector 88"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="3"/>
           <a:endCxn id="43" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -3525,333 +3119,6 @@
         <a:xfrm flipV="1">
           <a:off x="4886325" y="3714750"/>
           <a:ext cx="12700" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rounded Rectangle 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9001125" y="5524500"/>
-          <a:ext cx="1285875" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rounded Rectangle 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="8001000"/>
-          <a:ext cx="1285875" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rounded Rectangle 92"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029825" y="10477500"/>
-          <a:ext cx="1285875" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Elbow Connector 94"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="3"/>
-          <a:endCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11315700" y="3714750"/>
-          <a:ext cx="12700" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Elbow Connector 95"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11315700" y="3714750"/>
-          <a:ext cx="12700" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Elbow Connector 98"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="3"/>
-          <a:endCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11315700" y="3714750"/>
-          <a:ext cx="12700" cy="7048500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4029,6 +3296,63 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rounded Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793941" y="6096000"/>
+          <a:ext cx="1546412" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Destroy Slot 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6619,759 +5943,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="381000"/>
-          <a:ext cx="11315700" cy="7620000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="571500"/>
-          <a:ext cx="10801350" cy="7239000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="952500"/>
-          <a:ext cx="4114800" cy="6438900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3857625" y="1143000"/>
-          <a:ext cx="3600450" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="2800"/>
-            <a:t>MISSION OBJECTIVES</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* herp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* derp</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* rofl</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* copter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* bah</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* humbug</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>* shalom</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7972425" y="952500"/>
-          <a:ext cx="5915025" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="1143000"/>
-          <a:ext cx="5400675" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="2800"/>
-            <a:t>MISSION DESCRIPTION</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>Lorem</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800" baseline="0"/>
-            <a:t> ipsum dolor fakin' herp derp</a:t>
-          </a:r>
-          <a:endParaRPr lang="fi-FI" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7972425" y="3619500"/>
-          <a:ext cx="5915025" cy="3238500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229600" y="3810000"/>
-          <a:ext cx="5400675" cy="2857500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="2800"/>
-            <a:t>&lt;insert</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="2800" baseline="0"/>
-            <a:t> hassu kuva missionista&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="fi-FI" sz="2800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11830050" y="7048500"/>
-          <a:ext cx="1543050" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>CLOSE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="381000"/>
-          <a:ext cx="11315700" cy="7620000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3343275" y="571500"/>
-          <a:ext cx="10801350" cy="7239000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11830050" y="7048500"/>
-          <a:ext cx="1543050" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1800"/>
-            <a:t>CLOSE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8176,17 +6747,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F15:BG62"/>
+  <dimension ref="F19:BG62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="15" spans="55:55" x14ac:dyDescent="0.25">
-      <c r="BC15" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="19" spans="7:59" x14ac:dyDescent="0.25">
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
@@ -8315,12 +6883,12 @@
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
       <c r="AR24" s="6"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
       <c r="BE24" s="7"/>
@@ -8341,17 +6909,17 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="AM25" s="6"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
       <c r="BE25" s="7"/>
@@ -8372,17 +6940,17 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="AM26" s="6"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
       <c r="BE26" s="7"/>
@@ -8403,17 +6971,17 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="AM27" s="6"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="6"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
       <c r="BE27" s="7"/>
@@ -8434,11 +7002,11 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="AM28" s="6"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
     </row>
     <row r="29" spans="7:59" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
@@ -8454,11 +7022,11 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="AM29" s="6"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
     </row>
     <row r="30" spans="7:59" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
@@ -8474,11 +7042,11 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="AM30" s="6"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
     </row>
     <row r="31" spans="7:59" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
@@ -8494,11 +7062,11 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="AM31" s="6"/>
-      <c r="AN31" s="4"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="4"/>
-      <c r="AR31" s="4"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
     </row>
     <row r="32" spans="7:59" x14ac:dyDescent="0.25">
       <c r="G32" s="2"/>
@@ -8514,11 +7082,11 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="AM32" s="6"/>
-      <c r="AN32" s="4"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="4"/>
-      <c r="AR32" s="4"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
     </row>
     <row r="33" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
@@ -8528,11 +7096,11 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
@@ -8548,17 +7116,17 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
       <c r="AM34" s="6"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
     </row>
     <row r="35" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
@@ -8568,17 +7136,17 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
       <c r="AM35" s="6"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
     </row>
     <row r="36" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
@@ -8588,17 +7156,17 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
       <c r="AM36" s="6"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
     </row>
     <row r="37" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
@@ -8634,11 +7202,11 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="AM38" s="6"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
     </row>
     <row r="39" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G39" s="2"/>
@@ -8654,11 +7222,11 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="AM39" s="6"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
     </row>
     <row r="40" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G40" s="2"/>
@@ -8673,12 +7241,12 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
     </row>
     <row r="41" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G41" s="2"/>
@@ -8688,20 +7256,20 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="AM41" s="6"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
     </row>
     <row r="42" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G42" s="2"/>
@@ -8710,18 +7278,18 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
     </row>
     <row r="43" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G43" s="2"/>
@@ -8730,18 +7298,18 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="AM43" s="6"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
     </row>
     <row r="44" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G44" s="2"/>
@@ -8750,18 +7318,18 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
     </row>
     <row r="45" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G45" s="2"/>
@@ -8770,12 +7338,12 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="4"/>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="4"/>
-      <c r="AR45" s="4"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
     </row>
     <row r="46" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G46" s="2"/>
@@ -8784,12 +7352,12 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="6"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
     </row>
     <row r="47" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G47" s="2"/>
@@ -8798,12 +7366,12 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="AM47" s="6"/>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="4"/>
-      <c r="AP47" s="4"/>
-      <c r="AQ47" s="4"/>
-      <c r="AR47" s="4"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
     </row>
     <row r="48" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G48" s="2"/>
@@ -8812,12 +7380,12 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="4"/>
-      <c r="AO48" s="4"/>
-      <c r="AP48" s="4"/>
-      <c r="AQ48" s="4"/>
-      <c r="AR48" s="4"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
     </row>
     <row r="49" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G49" s="2"/>
@@ -8826,12 +7394,12 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="4"/>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
     </row>
     <row r="50" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G50" s="2"/>
@@ -8840,12 +7408,12 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
     </row>
     <row r="51" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G51" s="2"/>
@@ -8854,12 +7422,12 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="4"/>
-      <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
     </row>
     <row r="52" spans="6:44" x14ac:dyDescent="0.25">
       <c r="F52" s="5"/>
@@ -8872,12 +7440,12 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
     </row>
     <row r="53" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
@@ -8886,12 +7454,12 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
     </row>
     <row r="54" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
@@ -8900,12 +7468,12 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
     </row>
     <row r="55" spans="6:44" x14ac:dyDescent="0.25">
       <c r="G55" s="2"/>
@@ -8914,68 +7482,68 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="AM55" s="6"/>
-      <c r="AN55" s="4"/>
-      <c r="AO55" s="4"/>
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
     </row>
     <row r="56" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM56" s="6"/>
-      <c r="AN56" s="4"/>
-      <c r="AO56" s="4"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="4"/>
-      <c r="AR56" s="4"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
     </row>
     <row r="57" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM57" s="6"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
-      <c r="AP57" s="4"/>
-      <c r="AQ57" s="4"/>
-      <c r="AR57" s="4"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
     </row>
     <row r="58" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
     </row>
     <row r="59" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
-      <c r="AP59" s="6"/>
-      <c r="AQ59" s="6"/>
-      <c r="AR59" s="6"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
     </row>
     <row r="60" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM60" s="6"/>
-      <c r="AN60" s="6"/>
-      <c r="AO60" s="6"/>
-      <c r="AP60" s="6"/>
-      <c r="AQ60" s="6"/>
-      <c r="AR60" s="6"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
     </row>
     <row r="61" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM61" s="6"/>
-      <c r="AN61" s="6"/>
-      <c r="AO61" s="6"/>
-      <c r="AP61" s="6"/>
-      <c r="AQ61" s="6"/>
-      <c r="AR61" s="6"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5"/>
     </row>
     <row r="62" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="AM62" s="6"/>
-      <c r="AN62" s="6"/>
-      <c r="AO62" s="6"/>
-      <c r="AP62" s="6"/>
-      <c r="AQ62" s="6"/>
-      <c r="AR62" s="6"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8987,7 +7555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U18:AJ50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
@@ -9253,36 +7821,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL32" sqref="BL32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
